--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/B/20/seed3/result_data_KNN.xlsx
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.292</v>
+        <v>5.93</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -601,7 +601,7 @@
         <v>-18.76</v>
       </c>
       <c r="B10" t="n">
-        <v>6.958</v>
+        <v>6.944</v>
       </c>
       <c r="C10" t="n">
         <v>-10.58</v>
@@ -635,7 +635,7 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.773999999999999</v>
+        <v>6.444</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -737,7 +737,7 @@
         <v>-23.05</v>
       </c>
       <c r="B18" t="n">
-        <v>6.101999999999999</v>
+        <v>6.873</v>
       </c>
       <c r="C18" t="n">
         <v>-15.19</v>
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>5.85</v>
+        <v>6.629</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
